--- a/medicine/Mort/Humusation/Humusation.xlsx
+++ b/medicine/Mort/Humusation/Humusation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’humusation est un néologisme créé en 2014 par ses adeptes de l'époque, principalement belges et français — dont Francis Busigny, à l'origine du concept —, désignant un processus particulier de terramation, transformation du corps des défunts en humus. Ce processus naturel, établi sur le modèle de la vie de la forêt, se déroule sur 12 mois. Il permet au corps humain de réintégrer le cycle du vivant et de perpétuer la vie, au lieu d'être source de pollution. L'humusation constitue une alternative écologique aux deux modalités funéraires principales que sont l'inhumation et la crémation.
 À ce jour, cependant, elle n'est pas autorisée en Europe.
@@ -513,23 +525,165 @@
           <t>Processus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le processus d'humusation[1] se déroule en quatre étapes distinctes.
-Première étape
-La première étape est l’« accueil » du corps. Revêtu d’un linceul biodégradable, le corps du défunt repose dans un cercueil réutilisable, dont la base est une civière en inox réfrigérante, afin de ne pas recourir, pour sa conservation, à des substances toxiques pour le sol et pour le processus d’humusation. Hormis ce détail technique, tout se déroule comme pour des funérailles conventionnelles.
-Deuxième étape
-La deuxième étape est  à proprement parler la mise en humusation. Le corps est déposé sur un lit de 20 cm de fins broyats de copeaux de bois, à même le sol, puis recouvert d’environ deux autres mètres cubes du même mélange végétal (dont 10% de lignite et un accélérateur de compost[a]), gorgé d’eau de pluie par immersion durant une semaine[b]. La butte d’humusation prend alors la forme d’un tumulus végétal.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le processus d'humusation se déroule en quatre étapes distinctes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Humusation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Humusation</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Processus</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Première étape</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première étape est l’« accueil » du corps. Revêtu d’un linceul biodégradable, le corps du défunt repose dans un cercueil réutilisable, dont la base est une civière en inox réfrigérante, afin de ne pas recourir, pour sa conservation, à des substances toxiques pour le sol et pour le processus d’humusation. Hormis ce détail technique, tout se déroule comme pour des funérailles conventionnelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Humusation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Humusation</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Processus</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Deuxième étape</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La deuxième étape est  à proprement parler la mise en humusation. Le corps est déposé sur un lit de 20 cm de fins broyats de copeaux de bois, à même le sol, puis recouvert d’environ deux autres mètres cubes du même mélange végétal (dont 10% de lignite et un accélérateur de compost[a]), gorgé d’eau de pluie par immersion durant une semaine[b]. La butte d’humusation prend alors la forme d’un tumulus végétal.
 Une stèle commémorative, en matériau naturel, est installée et permet aux proches de savoir où venir se recueillir pendant la troisième étape.
-Troisième étape
-La troisième étape est la « symbiose » du corps et de la terre. Elle dure 12 mois. C'est l'étape de décomposition naturelle des matières en présence des micro-organismes provenant du sol (bactéries, champignons, etc.), et permettant la transformation de la dépouille humaine en humus sain et fertile.
-Dans un premier temps, la température peut atteindre environ 60 degrés à l’intérieur du tumulus. La chaleur générée par cette phase permet de tuer d'éventuels agents pathogènes et ainsi d'écarter les risques sanitaires[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Humusation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Humusation</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Processus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Troisième étape</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La troisième étape est la « symbiose » du corps et de la terre. Elle dure 12 mois. C'est l'étape de décomposition naturelle des matières en présence des micro-organismes provenant du sol (bactéries, champignons, etc.), et permettant la transformation de la dépouille humaine en humus sain et fertile.
+Dans un premier temps, la température peut atteindre environ 60 degrés à l’intérieur du tumulus. La chaleur générée par cette phase permet de tuer d'éventuels agents pathogènes et ainsi d'écarter les risques sanitaires.
 Après plus ou moins quatre mois, lorsque toutes les parties molles sont décomposées, les humusateurs (personnes agréées aux techniques d'humusation mises en place par la Fondation d'Utilité Publique Métamorphose pour mourir... puis donner la vie !) enlèvent les éventuels résidus non humains présents (plombage, pacemaker, prothèse, etc.), réduisent en poudre les os et les dents afin de les incorporer au tumulus et enrichir le broyat, et finalement, reforment la butte.
 Cette bio-décomposition des dépouilles humaines est faite uniquement sous le contrôle d’humusateurs agréés, dans un lieu clôturé et sécurisé, nommé « Humusarium » (centre de mise en humusation).
 Pour une humusation réussie, il faut notamment : une butte érigée sur un sol vivant ; un broyat fin gorgé d’eau, avec un bon rapport carbone/azote (du brun et du vert) ; un taux d’humidité suffisant à tout moment ; une bonne aération ; un cycle de douze mois ; du personnel dûment formé pour mettre en œuvre les bonnes pratiques du processus.
 L’humusation d’un corps humain produit environ 1,5 m³ d'humus.
-Quatrième étape
-La quatrième étape est appelée le « cadeau » à la Terre. Douze mois après la mise en humusation, une partie de l'humus obtenu (+/- 1 % = +/- 15 litres[c]) est réinsérée par les humusateurs, selon les techniques agréées, dans de l'humus originel, au sein d'un espace distinct dédié au souvenir et au recueillement des proches, nommé « Bois du souvenir », pour y faire pousser un arbre en mémoire du défunt[d].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Humusation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Humusation</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Processus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Quatrième étape</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La quatrième étape est appelée le « cadeau » à la Terre. Douze mois après la mise en humusation, une partie de l'humus obtenu (+/- 1 % = +/- 15 litres[c]) est réinsérée par les humusateurs, selon les techniques agréées, dans de l'humus originel, au sein d'un espace distinct dédié au souvenir et au recueillement des proches, nommé « Bois du souvenir », pour y faire pousser un arbre en mémoire du défunt[d].
 Le passage (transfert de l'humus) d'un lieu à un autre, peut donner lieu à une cérémonie symbolique.
 La stèle commémorative est déplacée à l'endroit de pousse de l'arbre.
 Sous le contrôle des humusateurs et selon les techniques agréées, l'humus restant est utilisé par exemple, pour régénérer, de manière non commerciale, des sols malmenés de la région entourant l'humusarium et nécessitant d'être régénérés.
@@ -537,63 +691,171 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Humusation</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Humusation</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Humusation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Humusation</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Dans le monde</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Belgique
-2014 : pétition lancée pour légaliser l'humusation[3].
-2017 : approbation d'une motion, à l'unanimité, par le Conseil Communal de la ville de Liège visant à faire reconnaître le principe d’humusation comme mode légal de sépulture en demandant à la Région Wallonne de financer des tests scientifiques[4]. Ces derniers ont été confiés à l’UCLouvain par le Ministre de l’Environnement de l’époque, Carlo di Antonio, justifiant cette démarche par le fait que les pratiques actuelles sont très polluantes[5].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2014 : pétition lancée pour légaliser l'humusation.
+2017 : approbation d'une motion, à l'unanimité, par le Conseil Communal de la ville de Liège visant à faire reconnaître le principe d’humusation comme mode légal de sépulture en demandant à la Région Wallonne de financer des tests scientifiques. Ces derniers ont été confiés à l’UCLouvain par le Ministre de l’Environnement de l’époque, Carlo di Antonio, justifiant cette démarche par le fait que les pratiques actuelles sont très polluantes.
 2018 :
-15 janvier : motion déposée au conseil communal de Mons par le groupe Ecolo pour faire reconnaître l’humusation comme mode légal de sépulture[6].
+15 janvier : motion déposée au conseil communal de Mons par le groupe Ecolo pour faire reconnaître l’humusation comme mode légal de sépulture.
 19 novembre : adoption par la région de Bruxelles-Capitale d'une ordonnance en faveur de l’humusation, qui ne sera d’application qu’après confirmation de tests concluants. C’est la première mention du terme " humusation" dans la législation belge.
-14 décembre : l'UCLouvain, mandaté par la Région Wallonne en vue de valider scientifiquement le processus d'humusation, engage des expérimentations sur des porcs[7].
+14 décembre : l'UCLouvain, mandaté par la Région Wallonne en vue de valider scientifiquement le processus d'humusation, engage des expérimentations sur des porcs.
 2020 :
-26 octobre : à la suite des conclusions de l'étude de l’UCLouvain (non encore publiées), le ministre des Pouvoirs locaux, Christophe Collignon déclare qu'« il a été décidé de ne pas prolonger la réflexion sur une possible réglementation de l’humusation en Wallonie », tant pour les animaux que pour les humains[8].
-03 décembre : publication du rapport d'expérimentation de l'UCLouvain[7]. L'UCLouvain conclut que « l'humusation naturelle telle qu'étudiée ici n'apporte pas une réponse satisfaisante aux enjeux présentés dans la préface ».
-04 décembre : publication de la critique du rapport de l'UCLouvain par la Fondation Métamorphose[9] (créatrice de la technique) expliquant que contrairement à ce que l'UCLouvain aurait conclu, l'UCLouvain n'aurait pas utilisé les techniques précises préconisées par la Fondation Métamorphose ni même collaboré avec cette dernière pour la réalisation des tests pour garantir ainsi l'efficacité du procédé créé. Certains paramètres (taux d’humidité du broyat, épaisseur du linceul, influence de certains activateurs de compost, taille du tas, ...) méritant d’être étudiés de manière plus approfondie afin que l’humusation puisse être validée "scientifiquement" et fournir toutes les garanties nécessaires pour la réussite du procédé préconisé dont, par exemple, un taux d'humidité adéquat dans les buttes (l'une d'elles ayant été enterrée lors des tests de l'UCLouvain, ce qui n’est pas le processus préconisé) et l'impérieuse nécessité de recourir à des spécialistes du compostage experts en humusation pour la réalisation des tests.
+26 octobre : à la suite des conclusions de l'étude de l’UCLouvain (non encore publiées), le ministre des Pouvoirs locaux, Christophe Collignon déclare qu'« il a été décidé de ne pas prolonger la réflexion sur une possible réglementation de l’humusation en Wallonie », tant pour les animaux que pour les humains.
+03 décembre : publication du rapport d'expérimentation de l'UCLouvain. L'UCLouvain conclut que « l'humusation naturelle telle qu'étudiée ici n'apporte pas une réponse satisfaisante aux enjeux présentés dans la préface ».
+04 décembre : publication de la critique du rapport de l'UCLouvain par la Fondation Métamorphose (créatrice de la technique) expliquant que contrairement à ce que l'UCLouvain aurait conclu, l'UCLouvain n'aurait pas utilisé les techniques précises préconisées par la Fondation Métamorphose ni même collaboré avec cette dernière pour la réalisation des tests pour garantir ainsi l'efficacité du procédé créé. Certains paramètres (taux d’humidité du broyat, épaisseur du linceul, influence de certains activateurs de compost, taille du tas, ...) méritant d’être étudiés de manière plus approfondie afin que l’humusation puisse être validée "scientifiquement" et fournir toutes les garanties nécessaires pour la réussite du procédé préconisé dont, par exemple, un taux d'humidité adéquat dans les buttes (l'une d'elles ayant été enterrée lors des tests de l'UCLouvain, ce qui n’est pas le processus préconisé) et l'impérieuse nécessité de recourir à des spécialistes du compostage experts en humusation pour la réalisation des tests.
 2021 :
 21 janvier : à la  suite de la publication du rapport de l'UCLouvain, les asbl Le Pax Funèbre et Organicland, membres fondateurs de la Coopérative Humusation, dépose la radioscopie mondiale de l'humusation. Cet ouvrage a pour but de faire évoluer le concept à base de BRF défendu par les adeptes ainsi que de renouer un dialogue avec les différentes régions.
-8 juin : pétition lancée sur le site du Parlement wallon[10] afin que des porteurs du projet puissent se faire entendre des autorités "pour que le Parlement Wallon autorise les tests scientifiques sur l'humusation de quelques corps humains", aucune des demandes d’audition adressées à la Commission des Pouvoirs Locaux chargée des funérailles et sépultures n’ayant abouti.
+8 juin : pétition lancée sur le site du Parlement wallon afin que des porteurs du projet puissent se faire entendre des autorités "pour que le Parlement Wallon autorise les tests scientifiques sur l'humusation de quelques corps humains", aucune des demandes d’audition adressées à la Commission des Pouvoirs Locaux chargée des funérailles et sépultures n’ayant abouti.
 2022 :
-22 janvier : une butte témoin et une butte martyre avec une carcasse de porc sont constituées. Après 132 jours, les résultats suivant la radioscopie ne satisfont pas les membres de la Coopérative car la technique en rajoutant de la paille et du foin ne correspond pas à leur méthode. En conséquence, la séparation des administrateurs sera effective. Dès lors, Le Pax Funèbre et Organicland se concentrent sur un nouveau mode de sépulture écologique : La Sarcomusation[11].
+22 janvier : une butte témoin et une butte martyre avec une carcasse de porc sont constituées. Après 132 jours, les résultats suivant la radioscopie ne satisfont pas les membres de la Coopérative car la technique en rajoutant de la paille et du foin ne correspond pas à leur méthode. En conséquence, la séparation des administrateurs sera effective. Dès lors, Le Pax Funèbre et Organicland se concentrent sur un nouveau mode de sépulture écologique : La Sarcomusation.
 2023 :
-9 novembre : Après deux ans de blocage, à la suite d'une décision du ministre des Pouvoirs Locaux de Wallonie responsable des modes de sépulture, les essais menés, depuis ce printemps, par un centre de recherches agricoles agréé, à l’initiative de la coopérative à finalité sociale « Humusation », montrent que le compostage à chaud, mené dans des conditions bien contrôlées, est tout à fait performant pour décomposer complètement, en une centaine de jours, les chairs de dépouilles de porc[12]. Ces tests sont considérés comme illégaux[13].
+9 novembre : Après deux ans de blocage, à la suite d'une décision du ministre des Pouvoirs Locaux de Wallonie responsable des modes de sépulture, les essais menés, depuis ce printemps, par un centre de recherches agricoles agréé, à l’initiative de la coopérative à finalité sociale « Humusation », montrent que le compostage à chaud, mené dans des conditions bien contrôlées, est tout à fait performant pour décomposer complètement, en une centaine de jours, les chairs de dépouilles de porc. Ces tests sont considérés comme illégaux.
 2024 :
-17 janvier : Le gouvernement de la région Bruxelles-Capitale enterre définitivement l'Humusation[14] pour la Belgique. Toute pratique est illégale.
-Canada
-Depuis 2010, le Ministère de l'Agriculture, de l'Alimentation et des Affaires Rurales de la Province d’Ontario préconise aux éleveurs industriels de faire le compostage des cadavres de leurs bovins à la ferme plutôt que de faire appel aux services d’équarrissage[15].
-États-Unis
-Depuis 2008, le Cornell Waste Management Institute, financé par le département des transports de New York, Cornell Cooperative Extension et le Collège d'Agriculture et des Sciences Vivantes, préconise de composter les biches et cerfs qui ont été percutés par des véhicules[16].
-En 2019, l’État de Washington légalise la méthode "Recompose[17]"[18]. Le gouverneur Jay Inslee la présente comme un « effort réfléchi pour réduire notre empreinte environnementale »[18]. Cette technique se rapproche de l’humusation dans une version plus « high tech » même si restant quelque peu différente. Le processus a depuis été légalisé dans d'autres États, dont la Californie et New York[19].
-France
-Actuellement interdite en vertu de l'article 16-1-1 du Code civil qui dispose que « les restes des personnes décédées […] doivent être traités avec respect, dignité et décence ».
-En 2016, le ministère de l'Intérieur répond à la sénatrice du Rhône Élisabeth Lamure (Les Républicains) que la pratique « soulèverait des questions importantes, tenant notamment à l’absence de statut juridique des particules issues de cette technique », et évoque la nécessité d'« une réflexion approfondie qui pourrait se poursuivre dans le cadre du Conseil national des opérations funéraires »[18].
-En 2019, le mensuel Science et Vie souligne cependant que « les mentalités changent et, avec elles, le sens du "respect", de la "dignité" et de la "décence" »[20]. Ainsi, le cercueil est encore obligatoire, mais outre le bois, « les cercueils peuvent également être fabriqués dans un matériau ayant fait l'objet d'un agrément par le ministre chargé de la santé, après avis du Conseil supérieur d'hygiène publique de France », comme l'indique l'article R. 2213-25 du Code général des collectivités territoriales. Après leur utilisation en Europe du nord, des cercueils en "carton" (« matériau complexe de papier ») ont été mis sur le marché (moins coûteux et plus légers que les cercueils en bois)[21].
-En 2021, la députée de l'Isère, Elodie Jacquier-Laforge (Modem) propose devant l'Assemblée Nationale un amendement visant à légaliser l'humusation. Cet amendement est rejeté, mais la proposition de cette députée remet le débat à l'ordre du jour[22]. Cette même parlementaire dépose en 2023 une proposition de loi[23].
-La même année, l'association "HUMUSATION France" voit le jour, composée de citoyens engagés et déterminés à faire reconnaître légalement l'humusation en France. De nombreuses initiatives individuelles avaient déjà préparé le terrain. Leurs auteurs ont souhaité unir leurs forces au sein de cette structure commune afin d'agir plus efficacement de façon concertée[24]. En juillet 2022, la pétition initiée par l'association obtient plus de 25 000 signatures[25].
+17 janvier : Le gouvernement de la région Bruxelles-Capitale enterre définitivement l'Humusation pour la Belgique. Toute pratique est illégale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Humusation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Humusation</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2010, le Ministère de l'Agriculture, de l'Alimentation et des Affaires Rurales de la Province d’Ontario préconise aux éleveurs industriels de faire le compostage des cadavres de leurs bovins à la ferme plutôt que de faire appel aux services d’équarrissage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Humusation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Humusation</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Depuis 2008, le Cornell Waste Management Institute, financé par le département des transports de New York, Cornell Cooperative Extension et le Collège d'Agriculture et des Sciences Vivantes, préconise de composter les biches et cerfs qui ont été percutés par des véhicules.
+En 2019, l’État de Washington légalise la méthode "Recompose". Le gouverneur Jay Inslee la présente comme un « effort réfléchi pour réduire notre empreinte environnementale ». Cette technique se rapproche de l’humusation dans une version plus « high tech » même si restant quelque peu différente. Le processus a depuis été légalisé dans d'autres États, dont la Californie et New York.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Humusation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Humusation</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actuellement interdite en vertu de l'article 16-1-1 du Code civil qui dispose que « les restes des personnes décédées […] doivent être traités avec respect, dignité et décence ».
+En 2016, le ministère de l'Intérieur répond à la sénatrice du Rhône Élisabeth Lamure (Les Républicains) que la pratique « soulèverait des questions importantes, tenant notamment à l’absence de statut juridique des particules issues de cette technique », et évoque la nécessité d'« une réflexion approfondie qui pourrait se poursuivre dans le cadre du Conseil national des opérations funéraires ».
+En 2019, le mensuel Science et Vie souligne cependant que « les mentalités changent et, avec elles, le sens du "respect", de la "dignité" et de la "décence" ». Ainsi, le cercueil est encore obligatoire, mais outre le bois, « les cercueils peuvent également être fabriqués dans un matériau ayant fait l'objet d'un agrément par le ministre chargé de la santé, après avis du Conseil supérieur d'hygiène publique de France », comme l'indique l'article R. 2213-25 du Code général des collectivités territoriales. Après leur utilisation en Europe du nord, des cercueils en "carton" (« matériau complexe de papier ») ont été mis sur le marché (moins coûteux et plus légers que les cercueils en bois).
+En 2021, la députée de l'Isère, Elodie Jacquier-Laforge (Modem) propose devant l'Assemblée Nationale un amendement visant à légaliser l'humusation. Cet amendement est rejeté, mais la proposition de cette députée remet le débat à l'ordre du jour. Cette même parlementaire dépose en 2023 une proposition de loi.
+La même année, l'association "HUMUSATION France" voit le jour, composée de citoyens engagés et déterminés à faire reconnaître légalement l'humusation en France. De nombreuses initiatives individuelles avaient déjà préparé le terrain. Leurs auteurs ont souhaité unir leurs forces au sein de cette structure commune afin d'agir plus efficacement de façon concertée. En juillet 2022, la pétition initiée par l'association obtient plus de 25 000 signatures.
 </t>
         </is>
       </c>
